--- a/src/test/resources/import/generic/error-empty-row.xlsx
+++ b/src/test/resources/import/generic/error-empty-row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F03F7CC-EF0C-479A-AC38-C2AD5F18972D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{48BC45DA-CDAB-40FF-A0B9-3B570417EAC0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
